--- a/simulated_data.xlsx
+++ b/simulated_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3605.475200000001</v>
+        <v>3667.430990000001</v>
       </c>
       <c r="B2">
         <v>1.402125977911055</v>
@@ -387,7 +387,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>2922.4127</v>
+        <v>2984.36849</v>
       </c>
       <c r="B3">
         <v>11.43002836359665</v>
@@ -398,7 +398,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>674.0998999999999</v>
+        <v>692.1148999999999</v>
       </c>
       <c r="B4">
         <v>10.80911589739844</v>
@@ -409,7 +409,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>5853.788</v>
+        <v>5871.803</v>
       </c>
       <c r="B5">
         <v>9.867354356683791</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>1960.2504</v>
+        <v>2022.20619</v>
       </c>
       <c r="B6">
         <v>6.711032608058304</v>
@@ -431,7 +431,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>4567.6375</v>
+        <v>4629.59329</v>
       </c>
       <c r="B7">
         <v>7.751758998725563</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>329.0525</v>
+        <v>347.0675</v>
       </c>
       <c r="B8">
         <v>9.733060268685222</v>
@@ -453,7 +453,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>6198.8354</v>
+        <v>6216.8504</v>
       </c>
       <c r="B9">
         <v>10.07750778272748</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>5548.7467</v>
+        <v>5610.70249</v>
       </c>
       <c r="B10">
         <v>5.106852845288813</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>979.1411999999999</v>
+        <v>1041.09699</v>
       </c>
       <c r="B11">
         <v>9.308235140517354</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>5892.8101</v>
+        <v>5910.8251</v>
       </c>
       <c r="B12">
         <v>8.62972926069051</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>635.0778</v>
+        <v>653.0928</v>
       </c>
       <c r="B13">
         <v>7.873177503235638</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>5853.788</v>
+        <v>5915.74379</v>
       </c>
       <c r="B14">
         <v>2.5615228950046</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>674.0998999999999</v>
+        <v>736.0556899999999</v>
       </c>
       <c r="B15">
         <v>13.92321351682767</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>4262.5962</v>
+        <v>4280.6112</v>
       </c>
       <c r="B16">
         <v>4.306655411608517</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>2265.2917</v>
+        <v>2283.3067</v>
       </c>
       <c r="B17">
         <v>6.38427272439003</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>4912.6849</v>
+        <v>4930.699900000001</v>
       </c>
       <c r="B18">
         <v>12.4599950904958</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>1615.203</v>
+        <v>1633.218</v>
       </c>
       <c r="B19">
         <v>7.889897698536515</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1286.1505</v>
+        <v>1348.10629</v>
       </c>
       <c r="B20">
         <v>6.673630793578923</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>5241.7374</v>
+        <v>5303.69319</v>
       </c>
       <c r="B21">
         <v>10.30259809689596</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>2617.3714</v>
+        <v>2635.3864</v>
       </c>
       <c r="B22">
         <v>6.800201285164803</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>3910.516499999999</v>
+        <v>3928.531499999999</v>
       </c>
       <c r="B23">
         <v>2.216097831260413</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>3910.516500000001</v>
+        <v>3972.472290000001</v>
       </c>
       <c r="B24">
         <v>11.12857661768794</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>2617.3714</v>
+        <v>2679.32719</v>
       </c>
       <c r="B25">
         <v>2.381598450243473</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1615.203</v>
+        <v>1677.15879</v>
       </c>
       <c r="B26">
         <v>2.060205020941794</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>4912.6849</v>
+        <v>4974.64069</v>
       </c>
       <c r="B27">
         <v>4.577458583749831</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>979.1412</v>
+        <v>997.1562</v>
       </c>
       <c r="B28">
         <v>14.36199652310461</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>5548.7467</v>
+        <v>5566.7617</v>
       </c>
       <c r="B29">
         <v>12.81600432284176</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>4239.569</v>
+        <v>4301.52479</v>
       </c>
       <c r="B30">
         <v>10.89899302227423</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>2288.3189</v>
+        <v>2350.27469</v>
       </c>
       <c r="B31">
         <v>4.260187649633735</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>6198.835400000001</v>
+        <v>6260.791190000001</v>
       </c>
       <c r="B32">
         <v>7.993033485021442</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>4567.6375</v>
+        <v>391.00829</v>
       </c>
       <c r="B33">
         <v>9.767404143698514</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>1960.2504</v>
+        <v>4585.6525</v>
       </c>
       <c r="B34">
         <v>8.263915817253292</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>4545.594300000001</v>
+        <v>1978.2654</v>
       </c>
       <c r="B35">
         <v>5.289341134950519</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>1982.2936</v>
+        <v>4607.550090000001</v>
       </c>
       <c r="B36">
         <v>5.193924769293517</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>2265.2917</v>
+        <v>2044.24939</v>
       </c>
       <c r="B37">
         <v>3.518531526438892</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>4262.5962</v>
+        <v>2327.24749</v>
       </c>
       <c r="B38">
         <v>12.54478178638965</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>1653.2411</v>
+        <v>4324.55199</v>
       </c>
       <c r="B39">
         <v>6.036846867762506</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>4874.6468</v>
+        <v>1671.2561</v>
       </c>
       <c r="B40">
         <v>3.91916290903464</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>306.0253</v>
+        <v>4892.6618</v>
       </c>
       <c r="B41">
         <v>1.865453130099922</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>6221.8626</v>
+        <v>367.98109</v>
       </c>
       <c r="B42">
         <v>8.283902868162841</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>635.0778</v>
+        <v>6283.81839</v>
       </c>
       <c r="B43">
         <v>5.686381690669805</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>5892.810100000001</v>
+        <v>697.03359</v>
       </c>
       <c r="B44">
         <v>5.751517934724689</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>2288.3189</v>
+        <v>5954.765890000001</v>
       </c>
       <c r="B45">
         <v>5.667865811381489</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>4239.569</v>
+        <v>2306.3339</v>
       </c>
       <c r="B46">
         <v>14.70432431669906</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>2610.3391</v>
+        <v>4257.584</v>
       </c>
       <c r="B47">
         <v>6.674329224508256</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>3917.5488</v>
+        <v>2672.29489</v>
       </c>
       <c r="B48">
         <v>14.03565506171435</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>1982.2936</v>
+        <v>3979.50459</v>
       </c>
       <c r="B49">
         <v>12.50415098015219</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>4545.5943</v>
+        <v>2000.3086</v>
       </c>
       <c r="B50">
         <v>7.814556941390038</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>3612.5075</v>
+        <v>4563.6093</v>
       </c>
       <c r="B51">
         <v>13.63885116158053</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2915.3804</v>
+        <v>3630.5225</v>
       </c>
       <c r="B52">
         <v>10.70069581875578</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1308.1937</v>
+        <v>2933.395399999999</v>
       </c>
       <c r="B53">
         <v>6.206627360079437</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>5219.6942</v>
+        <v>1326.2087</v>
       </c>
       <c r="B54">
         <v>3.22643582848832</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>5241.7374</v>
+        <v>5237.7092</v>
       </c>
       <c r="B55">
         <v>14.4543857886456</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1286.1505</v>
+        <v>5259.7524</v>
       </c>
       <c r="B56">
         <v>12.51670508924872</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>4874.6468</v>
+        <v>1304.1655</v>
       </c>
       <c r="B57">
         <v>2.896263035014272</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1653.2411</v>
+        <v>4936.60259</v>
       </c>
       <c r="B58">
         <v>14.76390654081479</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>3260.4278</v>
+        <v>1715.19689</v>
       </c>
       <c r="B59">
         <v>13.83768974384293</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>3267.4601</v>
+        <v>3322.38359</v>
       </c>
       <c r="B60">
         <v>10.64085420966148</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>6527.8879</v>
+        <v>3329.41589</v>
       </c>
       <c r="B61">
         <v>2.630695700645447</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>5547.762699999999</v>
+        <v>6545.9029</v>
       </c>
       <c r="B62">
         <v>9.514576449990273</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>980.1251999999999</v>
+        <v>5565.7777</v>
       </c>
       <c r="B63">
         <v>9.464815934654325</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>3917.5488</v>
+        <v>998.1401999999999</v>
       </c>
       <c r="B64">
         <v>3.792240146081895</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>2610.3391</v>
+        <v>3935.5638</v>
       </c>
       <c r="B65">
         <v>13.48286427510902</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>6527.887900000001</v>
+        <v>2628.3541</v>
       </c>
       <c r="B66">
         <v>9.718098845332861</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>2915.3804</v>
+        <v>6589.843690000001</v>
       </c>
       <c r="B67">
         <v>5.352878645062447</v>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>3612.5075</v>
+        <v>2977.33619</v>
       </c>
       <c r="B68">
         <v>1.171910731587559</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>3267.4601</v>
+        <v>3674.46329</v>
       </c>
       <c r="B69">
         <v>1.612447910476476</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>3260.427799999999</v>
+        <v>3285.4751</v>
       </c>
       <c r="B70">
         <v>9.149751935619861</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>5219.6942</v>
+        <v>3278.442799999999</v>
       </c>
       <c r="B71">
         <v>14.99214413762093</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>1308.1937</v>
+        <v>5281.64999</v>
       </c>
       <c r="B72">
         <v>5.767604018095881</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>980.1251999999999</v>
+        <v>1370.14949</v>
       </c>
       <c r="B73">
         <v>1.045445160940289</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>5547.7627</v>
+        <v>1042.08099</v>
       </c>
       <c r="B74">
         <v>11.3314286605455</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>6221.862599999999</v>
+        <v>5609.71849</v>
       </c>
       <c r="B75">
         <v>4.739535705652088</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>2922.4127</v>
+        <v>6239.8776</v>
       </c>
       <c r="B76">
         <v>2.827977422159165</v>
@@ -1201,13 +1201,35 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>3605.475199999999</v>
+        <v>324.0403</v>
       </c>
       <c r="B77">
         <v>14.11988576920703</v>
       </c>
       <c r="C77">
         <v>37267547.98032111</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2940.4277</v>
+      </c>
+      <c r="B78">
+        <v>10.81613249657676</v>
+      </c>
+      <c r="C78">
+        <v>14411002.08812393</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>3623.490199999999</v>
+      </c>
+      <c r="B79">
+        <v>2.481001087930053</v>
+      </c>
+      <c r="C79">
+        <v>44898948.86223367</v>
       </c>
     </row>
   </sheetData>

--- a/simulated_data.xlsx
+++ b/simulated_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -373,863 +373,556 @@
           <t>sum_intensity</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>relative_abundance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>3667.430990000001</v>
+        <v>736.0556899999999</v>
       </c>
       <c r="B2">
-        <v>1.402125977911055</v>
+        <v>9.461384304799139</v>
       </c>
       <c r="C2">
-        <v>37932994.34286775</v>
+        <v>46774054.93697152</v>
+      </c>
+      <c r="D2">
+        <v>53.8213110761717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2984.36849</v>
+        <v>5871.803</v>
       </c>
       <c r="B3">
-        <v>11.43002836359665</v>
+        <v>1.314216795377433</v>
       </c>
       <c r="C3">
-        <v>77713315.70467912</v>
+        <v>9806178.097082302</v>
+      </c>
+      <c r="D3">
+        <v>6.16215243935585</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>692.1148999999999</v>
+        <v>3674.46329</v>
       </c>
       <c r="B4">
-        <v>10.80911589739844</v>
+        <v>4.863404691684991</v>
       </c>
       <c r="C4">
-        <v>656725.7406632416</v>
+        <v>34249626.75071321</v>
+      </c>
+      <c r="D4">
+        <v>43.02419358864427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>5871.803</v>
+        <v>2933.395399999999</v>
       </c>
       <c r="B5">
-        <v>9.867354356683791</v>
+        <v>1.885979023762047</v>
       </c>
       <c r="C5">
-        <v>17141001.91086065</v>
+        <v>92847836.11963736</v>
+      </c>
+      <c r="D5">
+        <v>81.96558153722435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2022.20619</v>
+        <v>391.00829</v>
       </c>
       <c r="B6">
-        <v>6.711032608058304</v>
+        <v>7.833420707844198</v>
       </c>
       <c r="C6">
-        <v>39055016.51785336</v>
+        <v>53126114.20966452</v>
+      </c>
+      <c r="D6">
+        <v>30.07693327963352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>4629.59329</v>
+        <v>6216.8504</v>
       </c>
       <c r="B7">
-        <v>7.751758998725563</v>
+        <v>9.165892066899687</v>
       </c>
       <c r="C7">
-        <v>49484956.59412816</v>
+        <v>31637618.93648887</v>
+      </c>
+      <c r="D7">
+        <v>34.06538967974484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>347.0675</v>
+        <v>2044.24939</v>
       </c>
       <c r="B8">
-        <v>9.733060268685222</v>
+        <v>10.85085315536708</v>
       </c>
       <c r="C8">
-        <v>51035962.90503629</v>
+        <v>52871289.06966653</v>
+      </c>
+      <c r="D8">
+        <v>63.5334720602259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>6216.8504</v>
+        <v>4563.6093</v>
       </c>
       <c r="B9">
-        <v>10.07750778272748</v>
+        <v>5.429401229601353</v>
       </c>
       <c r="C9">
-        <v>88657102.460186</v>
+        <v>21923186.5112111</v>
+      </c>
+      <c r="D9">
+        <v>99.17963263578713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>5610.70249</v>
+        <v>5954.76589</v>
       </c>
       <c r="B10">
-        <v>5.106852845288813</v>
+        <v>4.038747846148908</v>
       </c>
       <c r="C10">
-        <v>2221001.093334053</v>
+        <v>94037953.84229627</v>
+      </c>
+      <c r="D10">
+        <v>59.99673684127629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1041.09699</v>
+        <v>653.0928</v>
       </c>
       <c r="B11">
-        <v>9.308235140517354</v>
+        <v>14.2320901141502</v>
       </c>
       <c r="C11">
-        <v>91666424.78696537</v>
+        <v>26595556.27534399</v>
+      </c>
+      <c r="D11">
+        <v>39.00894275866449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>5910.8251</v>
+        <v>5609.718489999999</v>
       </c>
       <c r="B12">
-        <v>8.62972926069051</v>
+        <v>9.482183228246868</v>
       </c>
       <c r="C12">
-        <v>49656270.03224567</v>
+        <v>89375975.17861518</v>
+      </c>
+      <c r="D12">
+        <v>64.45388083811849</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>653.0928</v>
+        <v>998.1401999999999</v>
       </c>
       <c r="B13">
-        <v>7.873177503235638</v>
+        <v>14.95810251496732</v>
       </c>
       <c r="C13">
-        <v>57138227.63230186</v>
+        <v>21845853.3537155</v>
+      </c>
+      <c r="D13">
+        <v>27.5783758610487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5915.74379</v>
+        <v>4324.55199</v>
       </c>
       <c r="B14">
-        <v>2.5615228950046</v>
+        <v>3.154091729782522</v>
       </c>
       <c r="C14">
-        <v>63544596.3457576</v>
+        <v>78799847.86422923</v>
+      </c>
+      <c r="D14">
+        <v>52.63070035725832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>736.0556899999999</v>
+        <v>2283.3067</v>
       </c>
       <c r="B15">
-        <v>13.92321351682767</v>
+        <v>13.39353981707245</v>
       </c>
       <c r="C15">
-        <v>69062905.55134416</v>
+        <v>1066428.701139521</v>
+      </c>
+      <c r="D15">
+        <v>42.47555523179471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>4280.6112</v>
+        <v>4974.64069</v>
       </c>
       <c r="B16">
-        <v>4.306655411608517</v>
+        <v>8.930926641449332</v>
       </c>
       <c r="C16">
-        <v>52234534.49153807</v>
+        <v>96272915.95807764</v>
+      </c>
+      <c r="D16">
+        <v>46.65477389935404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2283.3067</v>
+        <v>1633.218</v>
       </c>
       <c r="B17">
-        <v>6.38427272439003</v>
+        <v>7.001561076380312</v>
       </c>
       <c r="C17">
-        <v>80986035.04535043</v>
+        <v>40206380.61509235</v>
+      </c>
+      <c r="D17">
+        <v>78.60767918173224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>4930.699900000001</v>
+        <v>2679.32719</v>
       </c>
       <c r="B18">
-        <v>12.4599950904958</v>
+        <v>6.294707366731018</v>
       </c>
       <c r="C18">
-        <v>13937808.8820586</v>
+        <v>39299537.97656344</v>
+      </c>
+      <c r="D18">
+        <v>12.51592065673321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1633.218</v>
+        <v>3928.531499999999</v>
       </c>
       <c r="B19">
-        <v>7.889897698536515</v>
+        <v>9.041609114501625</v>
       </c>
       <c r="C19">
-        <v>48799388.31891399</v>
+        <v>16998202.01984607</v>
+      </c>
+      <c r="D19">
+        <v>59.70880198292434</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1348.10629</v>
+        <v>1370.14949</v>
       </c>
       <c r="B20">
-        <v>6.673630793578923</v>
+        <v>6.31378120649606</v>
       </c>
       <c r="C20">
-        <v>79433581.65045036</v>
+        <v>21183174.02305314</v>
+      </c>
+      <c r="D20">
+        <v>95.80409890040755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>5303.69319</v>
+        <v>5237.7092</v>
       </c>
       <c r="B21">
-        <v>10.30259809689596</v>
+        <v>13.28806060506031</v>
       </c>
       <c r="C21">
-        <v>20496555.46071241</v>
+        <v>94691036.94667807</v>
+      </c>
+      <c r="D21">
+        <v>5.625512171536684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2635.3864</v>
+        <v>3979.50459</v>
       </c>
       <c r="B22">
-        <v>6.800201285164803</v>
+        <v>7.552859956864268</v>
       </c>
       <c r="C22">
-        <v>72999135.69416618</v>
+        <v>51353820.10245696</v>
+      </c>
+      <c r="D22">
+        <v>56.84783451724797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>3928.531499999999</v>
+        <v>2628.3541</v>
       </c>
       <c r="B23">
-        <v>2.216097831260413</v>
+        <v>4.477873452473432</v>
       </c>
       <c r="C23">
-        <v>10419957.35912817</v>
+        <v>77796823.9842914</v>
+      </c>
+      <c r="D23">
+        <v>76.74681195057929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>3972.472290000001</v>
+        <v>1041.09699</v>
       </c>
       <c r="B24">
-        <v>11.12857661768794</v>
+        <v>10.14320979081094</v>
       </c>
       <c r="C24">
-        <v>37208648.50963698</v>
+        <v>63192463.31640985</v>
+      </c>
+      <c r="D24">
+        <v>70.08391718845814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2679.32719</v>
+        <v>5566.7617</v>
       </c>
       <c r="B25">
-        <v>2.381598450243473</v>
+        <v>5.135591136291623</v>
       </c>
       <c r="C25">
-        <v>14092490.05015939</v>
+        <v>6170630.324110389</v>
+      </c>
+      <c r="D25">
+        <v>86.80212215986103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1677.15879</v>
+        <v>1715.19689</v>
       </c>
       <c r="B26">
-        <v>2.060205020941794</v>
+        <v>7.42552215186879</v>
       </c>
       <c r="C26">
-        <v>4907115.145509597</v>
+        <v>55294263.26696062</v>
+      </c>
+      <c r="D26">
+        <v>64.90659825503826</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>4974.64069</v>
+        <v>4892.6618</v>
       </c>
       <c r="B27">
-        <v>4.577458583749831</v>
+        <v>12.46623064670712</v>
       </c>
       <c r="C27">
-        <v>11377913.94786909</v>
+        <v>43848219.14559696</v>
+      </c>
+      <c r="D27">
+        <v>97.23116690292954</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>997.1562</v>
+        <v>4629.59329</v>
       </c>
       <c r="B28">
-        <v>14.36199652310461</v>
+        <v>11.96426655119285</v>
       </c>
       <c r="C28">
-        <v>6981399.813687894</v>
+        <v>75278912.38875455</v>
+      </c>
+      <c r="D28">
+        <v>19.00349380448461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5566.7617</v>
+        <v>1978.2654</v>
       </c>
       <c r="B29">
-        <v>12.81600432284176</v>
+        <v>7.95252254512161</v>
       </c>
       <c r="C29">
-        <v>76333689.18198627</v>
+        <v>51758640.88305505</v>
+      </c>
+      <c r="D29">
+        <v>33.99942971300334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>4301.52479</v>
+        <v>6283.818389999999</v>
       </c>
       <c r="B30">
-        <v>10.89899302227423</v>
+        <v>7.729519051965326</v>
       </c>
       <c r="C30">
-        <v>93007715.94594233</v>
+        <v>45527673.40231919</v>
+      </c>
+      <c r="D30">
+        <v>55.10944714769721</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2350.27469</v>
+        <v>324.0403</v>
       </c>
       <c r="B31">
-        <v>4.260187649633735</v>
+        <v>6.635990009177476</v>
       </c>
       <c r="C31">
-        <v>3187405.073873233</v>
+        <v>80110278.00964424</v>
+      </c>
+      <c r="D31">
+        <v>95.85331026464701</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>6260.791190000001</v>
+        <v>2350.27469</v>
       </c>
       <c r="B32">
-        <v>7.993033485021442</v>
+        <v>8.198682204820216</v>
       </c>
       <c r="C32">
-        <v>64184014.28665267</v>
+        <v>44452466.48275526</v>
+      </c>
+      <c r="D32">
+        <v>56.11788691021502</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>391.00829</v>
+        <v>4257.584</v>
       </c>
       <c r="B33">
-        <v>9.767404143698514</v>
+        <v>7.855525132268667</v>
       </c>
       <c r="C33">
-        <v>89083112.52863845</v>
+        <v>30836558.81756917</v>
+      </c>
+      <c r="D33">
+        <v>56.76442023832351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>4585.6525</v>
+        <v>5303.69319</v>
       </c>
       <c r="B34">
-        <v>8.263915817253292</v>
+        <v>1.112230526283383</v>
       </c>
       <c r="C34">
-        <v>24004069.33576101</v>
+        <v>21175514.61432828</v>
+      </c>
+      <c r="D34">
+        <v>13.58023404609412</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1978.2654</v>
+        <v>1304.1655</v>
       </c>
       <c r="B35">
-        <v>5.289341134950519</v>
+        <v>2.537494438700378</v>
       </c>
       <c r="C35">
-        <v>76942785.89646564</v>
+        <v>61373117.70087108</v>
+      </c>
+      <c r="D35">
+        <v>4.54074265435338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>4607.550090000001</v>
+        <v>6589.84369</v>
       </c>
       <c r="B36">
-        <v>5.193924769293517</v>
+        <v>8.188673553057015</v>
       </c>
       <c r="C36">
-        <v>80814409.52896607</v>
+        <v>86582689.84108232</v>
+      </c>
+      <c r="D36">
+        <v>74.07084081787616</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2044.24939</v>
+        <v>3329.41589</v>
       </c>
       <c r="B37">
-        <v>3.518531526438892</v>
+        <v>10.34203431103379</v>
       </c>
       <c r="C37">
-        <v>51721325.35526296</v>
+        <v>1111756.014877465</v>
+      </c>
+      <c r="D37">
+        <v>17.30948504991829</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2327.24749</v>
+        <v>3278.442799999999</v>
       </c>
       <c r="B38">
-        <v>12.54478178638965</v>
+        <v>2.964039552491158</v>
       </c>
       <c r="C38">
-        <v>10759601.85667034</v>
+        <v>51728370.3620825</v>
+      </c>
+      <c r="D38">
+        <v>36.20765199884772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>4324.55199</v>
+        <v>2984.36849</v>
       </c>
       <c r="B39">
-        <v>6.036846867762506</v>
+        <v>4.888574005104601</v>
       </c>
       <c r="C39">
-        <v>55993815.1162886</v>
+        <v>4060113.427350298</v>
+      </c>
+      <c r="D39">
+        <v>77.96748445834965</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671.2561</v>
+        <v>3623.490199999999</v>
       </c>
       <c r="B40">
-        <v>3.91916290903464</v>
+        <v>13.11926207924262</v>
       </c>
       <c r="C40">
-        <v>61335760.61696513</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>4892.6618</v>
-      </c>
-      <c r="B41">
-        <v>1.865453130099922</v>
-      </c>
-      <c r="C41">
-        <v>1438217.865468469</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>367.98109</v>
-      </c>
-      <c r="B42">
-        <v>8.283902868162841</v>
-      </c>
-      <c r="C42">
-        <v>38142768.8839566</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>6283.81839</v>
-      </c>
-      <c r="B43">
-        <v>5.686381690669805</v>
-      </c>
-      <c r="C43">
-        <v>91085292.70639411</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>697.03359</v>
-      </c>
-      <c r="B44">
-        <v>5.751517934724689</v>
-      </c>
-      <c r="C44">
-        <v>62225989.09788997</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>5954.765890000001</v>
-      </c>
-      <c r="B45">
-        <v>5.667865811381489</v>
-      </c>
-      <c r="C45">
-        <v>35967270.44749773</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>2306.3339</v>
-      </c>
-      <c r="B46">
-        <v>14.70432431669906</v>
-      </c>
-      <c r="C46">
-        <v>6199977.065476123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>4257.584</v>
-      </c>
-      <c r="B47">
-        <v>6.674329224508256</v>
-      </c>
-      <c r="C47">
-        <v>65943896.64192218</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>2672.29489</v>
-      </c>
-      <c r="B48">
-        <v>14.03565506171435</v>
-      </c>
-      <c r="C48">
-        <v>79025006.68819761</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>3979.50459</v>
-      </c>
-      <c r="B49">
-        <v>12.50415098015219</v>
-      </c>
-      <c r="C49">
-        <v>75588452.68290257</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>2000.3086</v>
-      </c>
-      <c r="B50">
-        <v>7.814556941390038</v>
-      </c>
-      <c r="C50">
-        <v>6275993.930154946</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>4563.6093</v>
-      </c>
-      <c r="B51">
-        <v>13.63885116158053</v>
-      </c>
-      <c r="C51">
-        <v>24515605.72786955</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>3630.5225</v>
-      </c>
-      <c r="B52">
-        <v>10.70069581875578</v>
-      </c>
-      <c r="C52">
-        <v>77382643.0440764</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>2933.395399999999</v>
-      </c>
-      <c r="B53">
-        <v>6.206627360079437</v>
-      </c>
-      <c r="C53">
-        <v>35751964.84585525</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>1326.2087</v>
-      </c>
-      <c r="B54">
-        <v>3.22643582848832</v>
-      </c>
-      <c r="C54">
-        <v>22559245.18157728</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>5237.7092</v>
-      </c>
-      <c r="B55">
-        <v>14.4543857886456</v>
-      </c>
-      <c r="C55">
-        <v>16526074.07042058</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>5259.7524</v>
-      </c>
-      <c r="B56">
-        <v>12.51670508924872</v>
-      </c>
-      <c r="C56">
-        <v>99769304.85403165</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>1304.1655</v>
-      </c>
-      <c r="B57">
-        <v>2.896263035014272</v>
-      </c>
-      <c r="C57">
-        <v>50618585.26367228</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>4936.60259</v>
-      </c>
-      <c r="B58">
-        <v>14.76390654081479</v>
-      </c>
-      <c r="C58">
-        <v>37386445.26025513</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>1715.19689</v>
-      </c>
-      <c r="B59">
-        <v>13.83768974384293</v>
-      </c>
-      <c r="C59">
-        <v>98050597.0646441</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>3322.38359</v>
-      </c>
-      <c r="B60">
-        <v>10.64085420966148</v>
-      </c>
-      <c r="C60">
-        <v>86460740.57305464</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>3329.41589</v>
-      </c>
-      <c r="B61">
-        <v>2.630695700645447</v>
-      </c>
-      <c r="C61">
-        <v>95967952.19102409</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>6545.9029</v>
-      </c>
-      <c r="B62">
-        <v>9.514576449990273</v>
-      </c>
-      <c r="C62">
-        <v>47762697.00252451</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>5565.7777</v>
-      </c>
-      <c r="B63">
-        <v>9.464815934654325</v>
-      </c>
-      <c r="C63">
-        <v>95205019.72509316</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>998.1401999999999</v>
-      </c>
-      <c r="B64">
-        <v>3.792240146081895</v>
-      </c>
-      <c r="C64">
-        <v>25585956.61182189</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>3935.5638</v>
-      </c>
-      <c r="B65">
-        <v>13.48286427510902</v>
-      </c>
-      <c r="C65">
-        <v>24829822.58643489</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>2628.3541</v>
-      </c>
-      <c r="B66">
-        <v>9.718098845332861</v>
-      </c>
-      <c r="C66">
-        <v>4475884.721206967</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>6589.843690000001</v>
-      </c>
-      <c r="B67">
-        <v>5.352878645062447</v>
-      </c>
-      <c r="C67">
-        <v>7835591.810459737</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>2977.33619</v>
-      </c>
-      <c r="B68">
-        <v>1.171910731587559</v>
-      </c>
-      <c r="C68">
-        <v>12857010.16250066</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>3674.46329</v>
-      </c>
-      <c r="B69">
-        <v>1.612447910476476</v>
-      </c>
-      <c r="C69">
-        <v>10207254.45065415</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70">
-        <v>3285.4751</v>
-      </c>
-      <c r="B70">
-        <v>9.149751935619861</v>
-      </c>
-      <c r="C70">
-        <v>74951090.73365107</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71">
-        <v>3278.442799999999</v>
-      </c>
-      <c r="B71">
-        <v>14.99214413762093</v>
-      </c>
-      <c r="C71">
-        <v>63782077.68660271</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72">
-        <v>5281.64999</v>
-      </c>
-      <c r="B72">
-        <v>5.767604018095881</v>
-      </c>
-      <c r="C72">
-        <v>96452203.14141828</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73">
-        <v>1370.14949</v>
-      </c>
-      <c r="B73">
-        <v>1.045445160940289</v>
-      </c>
-      <c r="C73">
-        <v>95981702.70168921</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74">
-        <v>1042.08099</v>
-      </c>
-      <c r="B74">
-        <v>11.3314286605455</v>
-      </c>
-      <c r="C74">
-        <v>2247760.809466708</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75">
-        <v>5609.71849</v>
-      </c>
-      <c r="B75">
-        <v>4.739535705652088</v>
-      </c>
-      <c r="C75">
-        <v>14285239.48209127</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>6239.8776</v>
-      </c>
-      <c r="B76">
-        <v>2.827977422159165</v>
-      </c>
-      <c r="C76">
-        <v>87506651.43341525</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>324.0403</v>
-      </c>
-      <c r="B77">
-        <v>14.11988576920703</v>
-      </c>
-      <c r="C77">
-        <v>37267547.98032111</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>2940.4277</v>
-      </c>
-      <c r="B78">
-        <v>10.81613249657676</v>
-      </c>
-      <c r="C78">
-        <v>14411002.08812393</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79">
-        <v>3623.490199999999</v>
-      </c>
-      <c r="B79">
-        <v>2.481001087930053</v>
-      </c>
-      <c r="C79">
-        <v>44898948.86223367</v>
+        <v>91042510.97817905</v>
+      </c>
+      <c r="D40">
+        <v>54.22004219144583</v>
       </c>
     </row>
   </sheetData>

--- a/simulated_data.xlsx
+++ b/simulated_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -925,6 +925,2652 @@
         <v>54.22004219144583</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41">
+        <v>1331.12739</v>
+      </c>
+      <c r="B41">
+        <v>12.54478178638965</v>
+      </c>
+      <c r="C41">
+        <v>10759601.85667034</v>
+      </c>
+      <c r="D41">
+        <v>35.97747762687504</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>8340.080600000001</v>
+      </c>
+      <c r="B42">
+        <v>8.838517968077213</v>
+      </c>
+      <c r="C42">
+        <v>20859078.51959812</v>
+      </c>
+      <c r="D42">
+        <v>61.33189380634576</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>3188.33839</v>
+      </c>
+      <c r="B43">
+        <v>1.865453130099922</v>
+      </c>
+      <c r="C43">
+        <v>1438217.865468469</v>
+      </c>
+      <c r="D43">
+        <v>52.02787762973458</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>6482.869600000002</v>
+      </c>
+      <c r="B44">
+        <v>6.339121555909514</v>
+      </c>
+      <c r="C44">
+        <v>33480807.51786241</v>
+      </c>
+      <c r="D44">
+        <v>91.08440114650875</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>367.98109</v>
+      </c>
+      <c r="B45">
+        <v>5.751517934724689</v>
+      </c>
+      <c r="C45">
+        <v>62225989.09788997</v>
+      </c>
+      <c r="D45">
+        <v>33.34189865272492</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>9303.226900000001</v>
+      </c>
+      <c r="B46">
+        <v>6.034521314781159</v>
+      </c>
+      <c r="C46">
+        <v>97888242.03048134</v>
+      </c>
+      <c r="D46">
+        <v>6.190596125088632</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>5100.566389999999</v>
+      </c>
+      <c r="B47">
+        <v>6.674329224508256</v>
+      </c>
+      <c r="C47">
+        <v>65943896.64192218</v>
+      </c>
+      <c r="D47">
+        <v>93.11182186938822</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>4570.641600000001</v>
+      </c>
+      <c r="B48">
+        <v>12.06320725707337</v>
+      </c>
+      <c r="C48">
+        <v>82174289.75038695</v>
+      </c>
+      <c r="D48">
+        <v>75.58601128403097</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>697.03359</v>
+      </c>
+      <c r="B49">
+        <v>7.814556941390038</v>
+      </c>
+      <c r="C49">
+        <v>6275993.930154946</v>
+      </c>
+      <c r="D49">
+        <v>90.27750829700381</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>8974.174400000002</v>
+      </c>
+      <c r="B50">
+        <v>4.431127914693207</v>
+      </c>
+      <c r="C50">
+        <v>69293755.35124214</v>
+      </c>
+      <c r="D50">
+        <v>77.38038108218461</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>6119.71369</v>
+      </c>
+      <c r="B51">
+        <v>6.206627360079437</v>
+      </c>
+      <c r="C51">
+        <v>35751964.84585525</v>
+      </c>
+      <c r="D51">
+        <v>15.90311306063086</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>3551.494299999999</v>
+      </c>
+      <c r="B52">
+        <v>4.157210046425462</v>
+      </c>
+      <c r="C52">
+        <v>96103145.35761951</v>
+      </c>
+      <c r="D52">
+        <v>16.51772584300488</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>4144.452389999999</v>
+      </c>
+      <c r="B53">
+        <v>12.51670508924872</v>
+      </c>
+      <c r="C53">
+        <v>99769304.85403165</v>
+      </c>
+      <c r="D53">
+        <v>13.54473596438766</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>5526.755600000001</v>
+      </c>
+      <c r="B54">
+        <v>8.085910527966917</v>
+      </c>
+      <c r="C54">
+        <v>98313786.78686218</v>
+      </c>
+      <c r="D54">
+        <v>37.38018327858299</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>7074.84369</v>
+      </c>
+      <c r="B55">
+        <v>13.83768974384293</v>
+      </c>
+      <c r="C55">
+        <v>98050597.0646441</v>
+      </c>
+      <c r="D55">
+        <v>68.86324435472488</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2596.3643</v>
+      </c>
+      <c r="B56">
+        <v>13.10431411163881</v>
+      </c>
+      <c r="C56">
+        <v>11656661.65053844</v>
+      </c>
+      <c r="D56">
+        <v>95.96754894591868</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1660.17989</v>
+      </c>
+      <c r="B57">
+        <v>9.514576449990273</v>
+      </c>
+      <c r="C57">
+        <v>47762697.00252451</v>
+      </c>
+      <c r="D57">
+        <v>60.46297096181661</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>8011.028100000002</v>
+      </c>
+      <c r="B58">
+        <v>14.32863562507555</v>
+      </c>
+      <c r="C58">
+        <v>19952578.01476633</v>
+      </c>
+      <c r="D58">
+        <v>25.57851446326822</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>6729.796289999999</v>
+      </c>
+      <c r="B59">
+        <v>13.48286427510902</v>
+      </c>
+      <c r="C59">
+        <v>24829822.58643489</v>
+      </c>
+      <c r="D59">
+        <v>62.27213460952044</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2941.4117</v>
+      </c>
+      <c r="B60">
+        <v>1.625286389607936</v>
+      </c>
+      <c r="C60">
+        <v>31098881.12284243</v>
+      </c>
+      <c r="D60">
+        <v>7.826374447904527</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>8689.062690000001</v>
+      </c>
+      <c r="B61">
+        <v>1.171910731587559</v>
+      </c>
+      <c r="C61">
+        <v>12857010.16250066</v>
+      </c>
+      <c r="D61">
+        <v>4.374627931974828</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>982.1453</v>
+      </c>
+      <c r="B62">
+        <v>2.427758398931473</v>
+      </c>
+      <c r="C62">
+        <v>58216692.57447356</v>
+      </c>
+      <c r="D62">
+        <v>74.94858559221029</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>7419.89109</v>
+      </c>
+      <c r="B63">
+        <v>14.99214413762093</v>
+      </c>
+      <c r="C63">
+        <v>63782077.68660271</v>
+      </c>
+      <c r="D63">
+        <v>34.05431441497058</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2251.3169</v>
+      </c>
+      <c r="B64">
+        <v>14.50325876567513</v>
+      </c>
+      <c r="C64">
+        <v>334575.8316013962</v>
+      </c>
+      <c r="D64">
+        <v>95.98130083177239</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>9324.140490000002</v>
+      </c>
+      <c r="B65">
+        <v>11.3314286605455</v>
+      </c>
+      <c r="C65">
+        <v>2247760.809466708</v>
+      </c>
+      <c r="D65">
+        <v>26.71096932608634</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>347.0675</v>
+      </c>
+      <c r="B66">
+        <v>2.998733400832862</v>
+      </c>
+      <c r="C66">
+        <v>13065675.88869249</v>
+      </c>
+      <c r="D66">
+        <v>87.50540197361261</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1966.20519</v>
+      </c>
+      <c r="B67">
+        <v>14.11988576920703</v>
+      </c>
+      <c r="C67">
+        <v>37267547.98032111</v>
+      </c>
+      <c r="D67">
+        <v>70.1152321184054</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>7705.002800000002</v>
+      </c>
+      <c r="B68">
+        <v>3.016341926530004</v>
+      </c>
+      <c r="C68">
+        <v>10587521.34158043</v>
+      </c>
+      <c r="D68">
+        <v>44.89343820605427</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>6424.754989999999</v>
+      </c>
+      <c r="B69">
+        <v>2.868153268937021</v>
+      </c>
+      <c r="C69">
+        <v>15023425.17745215</v>
+      </c>
+      <c r="D69">
+        <v>28.89900393784046</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>3246.453</v>
+      </c>
+      <c r="B70">
+        <v>7.258333762176335</v>
+      </c>
+      <c r="C70">
+        <v>37307758.88669537</v>
+      </c>
+      <c r="D70">
+        <v>39.29930469021201</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>4795.525089999999</v>
+      </c>
+      <c r="B71">
+        <v>1.327164964284748</v>
+      </c>
+      <c r="C71">
+        <v>81373990.21311431</v>
+      </c>
+      <c r="D71">
+        <v>5.114661157131195</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>4875.682900000001</v>
+      </c>
+      <c r="B72">
+        <v>12.82144429488108</v>
+      </c>
+      <c r="C72">
+        <v>70127145.00927366</v>
+      </c>
+      <c r="D72">
+        <v>75.72626322507858</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>5445.613789999999</v>
+      </c>
+      <c r="B73">
+        <v>4.733206249307841</v>
+      </c>
+      <c r="C73">
+        <v>91065422.01614939</v>
+      </c>
+      <c r="D73">
+        <v>37.83092871308327</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>4225.5942</v>
+      </c>
+      <c r="B74">
+        <v>11.07785070454702</v>
+      </c>
+      <c r="C74">
+        <v>7345803.257625084</v>
+      </c>
+      <c r="D74">
+        <v>11.94597298745066</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>4489.499789999999</v>
+      </c>
+      <c r="B75">
+        <v>11.90891044586897</v>
+      </c>
+      <c r="C75">
+        <v>51918405.07394402</v>
+      </c>
+      <c r="D75">
+        <v>56.53258245438337</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>5181.708200000001</v>
+      </c>
+      <c r="B76">
+        <v>5.506755603011698</v>
+      </c>
+      <c r="C76">
+        <v>7109800.453046337</v>
+      </c>
+      <c r="D76">
+        <v>58.73177894391119</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2576.28779</v>
+      </c>
+      <c r="B77">
+        <v>13.86908055795357</v>
+      </c>
+      <c r="C77">
+        <v>2834517.678834964</v>
+      </c>
+      <c r="D77">
+        <v>63.51426732726395</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>7094.920200000002</v>
+      </c>
+      <c r="B78">
+        <v>7.642011974006891</v>
+      </c>
+      <c r="C78">
+        <v>3123172.033119481</v>
+      </c>
+      <c r="D78">
+        <v>19.93154962547123</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1002.07489</v>
+      </c>
+      <c r="B79">
+        <v>11.46600216720253</v>
+      </c>
+      <c r="C79">
+        <v>55176963.83706526</v>
+      </c>
+      <c r="D79">
+        <v>60.43673462700099</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>8669.133100000001</v>
+      </c>
+      <c r="B80">
+        <v>9.793376619927585</v>
+      </c>
+      <c r="C80">
+        <v>47760177.37502232</v>
+      </c>
+      <c r="D80">
+        <v>65.45304453466088</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2271.24649</v>
+      </c>
+      <c r="B81">
+        <v>14.99904568493366</v>
+      </c>
+      <c r="C81">
+        <v>1020772.896215785</v>
+      </c>
+      <c r="D81">
+        <v>6.163565069437027</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>7399.961500000002</v>
+      </c>
+      <c r="B82">
+        <v>6.626074556726962</v>
+      </c>
+      <c r="C82">
+        <v>38932729.21353811</v>
+      </c>
+      <c r="D82">
+        <v>88.57127712108195</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>8053.984890000001</v>
+      </c>
+      <c r="B83">
+        <v>1.486287033651024</v>
+      </c>
+      <c r="C83">
+        <v>61674238.72635001</v>
+      </c>
+      <c r="D83">
+        <v>53.32460787612945</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1617.2231</v>
+      </c>
+      <c r="B84">
+        <v>7.496680312789977</v>
+      </c>
+      <c r="C84">
+        <v>49321652.14826819</v>
+      </c>
+      <c r="D84">
+        <v>42.43497222196311</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2882.313090000001</v>
+      </c>
+      <c r="B85">
+        <v>2.146961259655654</v>
+      </c>
+      <c r="C85">
+        <v>47019940.36744581</v>
+      </c>
+      <c r="D85">
+        <v>47.85867945756763</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>6788.894900000002</v>
+      </c>
+      <c r="B86">
+        <v>7.739643006585538</v>
+      </c>
+      <c r="C86">
+        <v>17128303.64290392</v>
+      </c>
+      <c r="D86">
+        <v>55.27234133332968</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>5790.66119</v>
+      </c>
+      <c r="B87">
+        <v>6.69000229658559</v>
+      </c>
+      <c r="C87">
+        <v>70378960.57867911</v>
+      </c>
+      <c r="D87">
+        <v>67.82881661783904</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>3880.5468</v>
+      </c>
+      <c r="B88">
+        <v>6.487892585340887</v>
+      </c>
+      <c r="C88">
+        <v>61850942.60937534</v>
+      </c>
+      <c r="D88">
+        <v>69.75163780152798</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>3494.36369</v>
+      </c>
+      <c r="B89">
+        <v>13.78277782164514</v>
+      </c>
+      <c r="C89">
+        <v>81235475.11829063</v>
+      </c>
+      <c r="D89">
+        <v>34.12810473237187</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>6176.844300000002</v>
+      </c>
+      <c r="B90">
+        <v>2.616151649970561</v>
+      </c>
+      <c r="C90">
+        <v>22004992.17747245</v>
+      </c>
+      <c r="D90">
+        <v>54.67650007922202</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>7724.93239</v>
+      </c>
+      <c r="B91">
+        <v>14.46691068494692</v>
+      </c>
+      <c r="C91">
+        <v>30304346.92017036</v>
+      </c>
+      <c r="D91">
+        <v>18.97991001605988</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1946.2756</v>
+      </c>
+      <c r="B92">
+        <v>8.242458628024906</v>
+      </c>
+      <c r="C92">
+        <v>18697942.20202137</v>
+      </c>
+      <c r="D92">
+        <v>40.82156363874674</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>9018.11519</v>
+      </c>
+      <c r="B93">
+        <v>7.400404145009816</v>
+      </c>
+      <c r="C93">
+        <v>80711446.23665139</v>
+      </c>
+      <c r="D93">
+        <v>69.6890001418069</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>653.0928</v>
+      </c>
+      <c r="B94">
+        <v>8.076935181859881</v>
+      </c>
+      <c r="C94">
+        <v>66192968.53002161</v>
+      </c>
+      <c r="D94">
+        <v>15.4581067385152</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>8360.010190000001</v>
+      </c>
+      <c r="B95">
+        <v>2.622882418800145</v>
+      </c>
+      <c r="C95">
+        <v>75182837.49374793</v>
+      </c>
+      <c r="D95">
+        <v>77.52825957722962</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1311.1978</v>
+      </c>
+      <c r="B96">
+        <v>1.439728689845651</v>
+      </c>
+      <c r="C96">
+        <v>58938651.66664356</v>
+      </c>
+      <c r="D96">
+        <v>2.719437656924129</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>23243.88379000001</v>
+      </c>
+      <c r="B97">
+        <v>12.24641202623025</v>
+      </c>
+      <c r="C97">
+        <v>18308668.11071755</v>
+      </c>
+      <c r="D97">
+        <v>56.15642580669373</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>9156.242</v>
+      </c>
+      <c r="B98">
+        <v>4.589972178917378</v>
+      </c>
+      <c r="C98">
+        <v>37135988.77365933</v>
+      </c>
+      <c r="D98">
+        <v>54.96014475356787</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>20657.55589000001</v>
+      </c>
+      <c r="B99">
+        <v>2.354343776125461</v>
+      </c>
+      <c r="C99">
+        <v>11225570.32863377</v>
+      </c>
+      <c r="D99">
+        <v>54.83984572347254</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>11742.5699</v>
+      </c>
+      <c r="B100">
+        <v>10.65843940945342</v>
+      </c>
+      <c r="C100">
+        <v>97981192.95335841</v>
+      </c>
+      <c r="D100">
+        <v>98.69402553886175</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>28464.56199000002</v>
+      </c>
+      <c r="B101">
+        <v>10.81665503140539</v>
+      </c>
+      <c r="C101">
+        <v>23855714.07910436</v>
+      </c>
+      <c r="D101">
+        <v>74.35187876690179</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>3935.563799999999</v>
+      </c>
+      <c r="B102">
+        <v>2.211604634765536</v>
+      </c>
+      <c r="C102">
+        <v>20040789.53851946</v>
+      </c>
+      <c r="D102">
+        <v>20.59334344230592</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>18338.23119000001</v>
+      </c>
+      <c r="B103">
+        <v>2.690812445245683</v>
+      </c>
+      <c r="C103">
+        <v>52575168.839416</v>
+      </c>
+      <c r="D103">
+        <v>66.31210225168616</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>14061.8946</v>
+      </c>
+      <c r="B104">
+        <v>12.56269332719967</v>
+      </c>
+      <c r="C104">
+        <v>80867887.10246794</v>
+      </c>
+      <c r="D104">
+        <v>86.87285531777889</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>11871.40859</v>
+      </c>
+      <c r="B105">
+        <v>1.611230709590018</v>
+      </c>
+      <c r="C105">
+        <v>26697195.77844488</v>
+      </c>
+      <c r="D105">
+        <v>34.63122798129916</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>20528.7172</v>
+      </c>
+      <c r="B106">
+        <v>5.727548872120678</v>
+      </c>
+      <c r="C106">
+        <v>1379849.055882078</v>
+      </c>
+      <c r="D106">
+        <v>45.96358814742416</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>32382.11079000002</v>
+      </c>
+      <c r="B107">
+        <v>12.11243355181068</v>
+      </c>
+      <c r="C107">
+        <v>48289752.93858908</v>
+      </c>
+      <c r="D107">
+        <v>77.54428957123309</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>15507.92729</v>
+      </c>
+      <c r="B108">
+        <v>12.43380023911595</v>
+      </c>
+      <c r="C108">
+        <v>70536640.72463754</v>
+      </c>
+      <c r="D108">
+        <v>54.67258768621832</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>16892.19849999999</v>
+      </c>
+      <c r="B109">
+        <v>3.013966361060739</v>
+      </c>
+      <c r="C109">
+        <v>3931158.42710482</v>
+      </c>
+      <c r="D109">
+        <v>47.19844358041883</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>30767.89179000002</v>
+      </c>
+      <c r="B110">
+        <v>14.55325792171061</v>
+      </c>
+      <c r="C110">
+        <v>84195371.46462592</v>
+      </c>
+      <c r="D110">
+        <v>1.436686748638749</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1632.234</v>
+      </c>
+      <c r="B111">
+        <v>12.98437020136043</v>
+      </c>
+      <c r="C111">
+        <v>92524198.54826061</v>
+      </c>
+      <c r="D111">
+        <v>63.38378414511681</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>17726.18059000001</v>
+      </c>
+      <c r="B112">
+        <v>5.253692531492561</v>
+      </c>
+      <c r="C112">
+        <v>58980667.52848448</v>
+      </c>
+      <c r="D112">
+        <v>55.95373138785362</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>14673.9452</v>
+      </c>
+      <c r="B113">
+        <v>3.0996396956034</v>
+      </c>
+      <c r="C113">
+        <v>9841852.728754748</v>
+      </c>
+      <c r="D113">
+        <v>96.08062331099063</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>6761.78609</v>
+      </c>
+      <c r="B114">
+        <v>2.779941338580102</v>
+      </c>
+      <c r="C114">
+        <v>75686991.4480485</v>
+      </c>
+      <c r="D114">
+        <v>76.44928013905883</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>25638.33970000001</v>
+      </c>
+      <c r="B115">
+        <v>10.73685613507405</v>
+      </c>
+      <c r="C115">
+        <v>5376994.874253869</v>
+      </c>
+      <c r="D115">
+        <v>73.33077436778694</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>367.98109</v>
+      </c>
+      <c r="B116">
+        <v>4.433686580043286</v>
+      </c>
+      <c r="C116">
+        <v>30066425.96918624</v>
+      </c>
+      <c r="D116">
+        <v>81.02933045011014</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>32032.14470000002</v>
+      </c>
+      <c r="B117">
+        <v>5.489747276064008</v>
+      </c>
+      <c r="C117">
+        <v>29340396.799054</v>
+      </c>
+      <c r="D117">
+        <v>51.65409347973764</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>17115.11399000001</v>
+      </c>
+      <c r="B118">
+        <v>3.296032483689487</v>
+      </c>
+      <c r="C118">
+        <v>65740259.04254289</v>
+      </c>
+      <c r="D118">
+        <v>51.97497371118516</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>15285.0118</v>
+      </c>
+      <c r="B119">
+        <v>7.738524992950261</v>
+      </c>
+      <c r="C119">
+        <v>43980688.86184599</v>
+      </c>
+      <c r="D119">
+        <v>57.49849400017411</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>21653.67599000001</v>
+      </c>
+      <c r="B120">
+        <v>4.688680593855679</v>
+      </c>
+      <c r="C120">
+        <v>97034703.75677803</v>
+      </c>
+      <c r="D120">
+        <v>24.69999629538506</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>10746.4498</v>
+      </c>
+      <c r="B121">
+        <v>7.11471995478496</v>
+      </c>
+      <c r="C121">
+        <v>34408953.68281752</v>
+      </c>
+      <c r="D121">
+        <v>17.42129169870168</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>23548.92509000001</v>
+      </c>
+      <c r="B122">
+        <v>8.047024229541421</v>
+      </c>
+      <c r="C122">
+        <v>75325213.86161214</v>
+      </c>
+      <c r="D122">
+        <v>25.86193799506873</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>8851.200699999999</v>
+      </c>
+      <c r="B123">
+        <v>3.335733484011143</v>
+      </c>
+      <c r="C123">
+        <v>78972166.96030228</v>
+      </c>
+      <c r="D123">
+        <v>70.56432948447764</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>20328.50339000001</v>
+      </c>
+      <c r="B124">
+        <v>3.049737901426852</v>
+      </c>
+      <c r="C124">
+        <v>66980334.0586042</v>
+      </c>
+      <c r="D124">
+        <v>95.289061893709</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>12071.6224</v>
+      </c>
+      <c r="B125">
+        <v>6.174516832921654</v>
+      </c>
+      <c r="C125">
+        <v>41406019.32069287</v>
+      </c>
+      <c r="D125">
+        <v>15.35856553819031</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>10648.29139</v>
+      </c>
+      <c r="B126">
+        <v>10.62623132159933</v>
+      </c>
+      <c r="C126">
+        <v>18658341.53030068</v>
+      </c>
+      <c r="D126">
+        <v>24.15304405149072</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>21751.83440000001</v>
+      </c>
+      <c r="B127">
+        <v>13.52396749611944</v>
+      </c>
+      <c r="C127">
+        <v>47879982.30101308</v>
+      </c>
+      <c r="D127">
+        <v>4.772014077752829</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>21308.62859000001</v>
+      </c>
+      <c r="B128">
+        <v>14.13415648043156</v>
+      </c>
+      <c r="C128">
+        <v>54758690.37625846</v>
+      </c>
+      <c r="D128">
+        <v>60.49217029940337</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>11091.4972</v>
+      </c>
+      <c r="B129">
+        <v>14.19228827394545</v>
+      </c>
+      <c r="C129">
+        <v>52745859.21519436</v>
+      </c>
+      <c r="D129">
+        <v>93.87250144500285</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>31732.02209000002</v>
+      </c>
+      <c r="B130">
+        <v>9.394415353890508</v>
+      </c>
+      <c r="C130">
+        <v>44113085.77923337</v>
+      </c>
+      <c r="D130">
+        <v>51.4893113868311</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>668.1037</v>
+      </c>
+      <c r="B131">
+        <v>2.112815410364419</v>
+      </c>
+      <c r="C131">
+        <v>55987831.75759483</v>
+      </c>
+      <c r="D131">
+        <v>69.74718028213829</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>8673.03009</v>
+      </c>
+      <c r="B132">
+        <v>12.50459790462628</v>
+      </c>
+      <c r="C132">
+        <v>85523103.24778081</v>
+      </c>
+      <c r="D132">
+        <v>83.60136689152569</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>23727.09570000001</v>
+      </c>
+      <c r="B133">
+        <v>1.433774563483894</v>
+      </c>
+      <c r="C133">
+        <v>47048836.78953396</v>
+      </c>
+      <c r="D133">
+        <v>15.25552419479936</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>4198.48539</v>
+      </c>
+      <c r="B134">
+        <v>11.08975726552308</v>
+      </c>
+      <c r="C134">
+        <v>47742722.34051256</v>
+      </c>
+      <c r="D134">
+        <v>71.15573268383741</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>28201.64040000001</v>
+      </c>
+      <c r="B135">
+        <v>12.36218476202339</v>
+      </c>
+      <c r="C135">
+        <v>72054999.62126371</v>
+      </c>
+      <c r="D135">
+        <v>58.27079894952476</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>28158.53669000002</v>
+      </c>
+      <c r="B136">
+        <v>7.673451301176101</v>
+      </c>
+      <c r="C136">
+        <v>61421917.31311148</v>
+      </c>
+      <c r="D136">
+        <v>7.890454982407391</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>4241.5891</v>
+      </c>
+      <c r="B137">
+        <v>4.925934376660734</v>
+      </c>
+      <c r="C137">
+        <v>97606449.09113181</v>
+      </c>
+      <c r="D137">
+        <v>25.44461379293352</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>22609.78999000001</v>
+      </c>
+      <c r="B138">
+        <v>9.110294413287193</v>
+      </c>
+      <c r="C138">
+        <v>14145099.71782099</v>
+      </c>
+      <c r="D138">
+        <v>55.25685099419206</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>9790.335800000001</v>
+      </c>
+      <c r="B139">
+        <v>5.433609570376575</v>
+      </c>
+      <c r="C139">
+        <v>13678259.61509952</v>
+      </c>
+      <c r="D139">
+        <v>74.35023987200111</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>29499.70419000002</v>
+      </c>
+      <c r="B140">
+        <v>12.05545084597543</v>
+      </c>
+      <c r="C140">
+        <v>24638088.12475298</v>
+      </c>
+      <c r="D140">
+        <v>69.48053925298154</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>2900.4216</v>
+      </c>
+      <c r="B141">
+        <v>5.122987497132272</v>
+      </c>
+      <c r="C141">
+        <v>24365724.72161381</v>
+      </c>
+      <c r="D141">
+        <v>17.86183917429298</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>13524.64969</v>
+      </c>
+      <c r="B142">
+        <v>13.6387010035105</v>
+      </c>
+      <c r="C142">
+        <v>7976326.979554724</v>
+      </c>
+      <c r="D142">
+        <v>36.33038674015552</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>18875.4761</v>
+      </c>
+      <c r="B143">
+        <v>14.87505490938202</v>
+      </c>
+      <c r="C143">
+        <v>66647827.92363316</v>
+      </c>
+      <c r="D143">
+        <v>66.29986532498151</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>2593.26669</v>
+      </c>
+      <c r="B144">
+        <v>1.909831336233765</v>
+      </c>
+      <c r="C144">
+        <v>44694095.14704487</v>
+      </c>
+      <c r="D144">
+        <v>18.54136579204351</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>29806.85910000002</v>
+      </c>
+      <c r="B145">
+        <v>10.83040384342894</v>
+      </c>
+      <c r="C145">
+        <v>22782383.42390163</v>
+      </c>
+      <c r="D145">
+        <v>42.79988452326506</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>4809.551989999999</v>
+      </c>
+      <c r="B146">
+        <v>2.036830693949014</v>
+      </c>
+      <c r="C146">
+        <v>40195986.93047883</v>
+      </c>
+      <c r="D146">
+        <v>46.99207991361618</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>27590.57380000001</v>
+      </c>
+      <c r="B147">
+        <v>1.299956084694713</v>
+      </c>
+      <c r="C147">
+        <v>32449830.1322083</v>
+      </c>
+      <c r="D147">
+        <v>84.86010697670281</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>29154.65679000002</v>
+      </c>
+      <c r="B148">
+        <v>12.56698537850752</v>
+      </c>
+      <c r="C148">
+        <v>21401938.02459864</v>
+      </c>
+      <c r="D148">
+        <v>92.07653941120952</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>3245.469</v>
+      </c>
+      <c r="B149">
+        <v>8.658680030610412</v>
+      </c>
+      <c r="C149">
+        <v>24275928.50143788</v>
+      </c>
+      <c r="D149">
+        <v>35.82428102381527</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>13853.70219</v>
+      </c>
+      <c r="B150">
+        <v>6.373347054235637</v>
+      </c>
+      <c r="C150">
+        <v>18986341.49256162</v>
+      </c>
+      <c r="D150">
+        <v>11.45135809201747</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>18546.4236</v>
+      </c>
+      <c r="B151">
+        <v>10.05815206002444</v>
+      </c>
+      <c r="C151">
+        <v>53416869.11492143</v>
+      </c>
+      <c r="D151">
+        <v>35.76755374670029</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>16464.04129</v>
+      </c>
+      <c r="B152">
+        <v>11.49293360998854</v>
+      </c>
+      <c r="C152">
+        <v>55350813.33888462</v>
+      </c>
+      <c r="D152">
+        <v>36.61465796176344</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>15936.0845</v>
+      </c>
+      <c r="B153">
+        <v>7.597829264122993</v>
+      </c>
+      <c r="C153">
+        <v>38695100.0865805</v>
+      </c>
+      <c r="D153">
+        <v>7.249670964665711</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>4504.510689999999</v>
+      </c>
+      <c r="B154">
+        <v>11.05876715760678</v>
+      </c>
+      <c r="C154">
+        <v>93475253.26014729</v>
+      </c>
+      <c r="D154">
+        <v>24.31937821675092</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>27895.61510000001</v>
+      </c>
+      <c r="B155">
+        <v>13.96664904151112</v>
+      </c>
+      <c r="C155">
+        <v>6814787.920217495</v>
+      </c>
+      <c r="D155">
+        <v>37.45064258109778</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>9958.19659</v>
+      </c>
+      <c r="B156">
+        <v>13.72039098013192</v>
+      </c>
+      <c r="C156">
+        <v>5885969.593850896</v>
+      </c>
+      <c r="D156">
+        <v>55.83474196027964</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>22441.92920000001</v>
+      </c>
+      <c r="B157">
+        <v>9.935845296829939</v>
+      </c>
+      <c r="C157">
+        <v>3094661.815161817</v>
+      </c>
+      <c r="D157">
+        <v>17.59166922420263</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>30438.83929000002</v>
+      </c>
+      <c r="B158">
+        <v>4.186060709878802</v>
+      </c>
+      <c r="C158">
+        <v>31236532.29283169</v>
+      </c>
+      <c r="D158">
+        <v>34.67155927792192</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>1961.2865</v>
+      </c>
+      <c r="B159">
+        <v>11.86050868080929</v>
+      </c>
+      <c r="C159">
+        <v>39220958.57798588</v>
+      </c>
+      <c r="D159">
+        <v>46.9443429261446</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>15852.97469</v>
+      </c>
+      <c r="B160">
+        <v>8.032183337491006</v>
+      </c>
+      <c r="C160">
+        <v>44424823.37909285</v>
+      </c>
+      <c r="D160">
+        <v>94.71371839754283</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>16547.1511</v>
+      </c>
+      <c r="B161">
+        <v>7.393648338969797</v>
+      </c>
+      <c r="C161">
+        <v>44403289.23369525</v>
+      </c>
+      <c r="D161">
+        <v>87.62288114521652</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>30109.78679000002</v>
+      </c>
+      <c r="B162">
+        <v>11.69717760570347</v>
+      </c>
+      <c r="C162">
+        <v>43806718.39332208</v>
+      </c>
+      <c r="D162">
+        <v>2.739617926999927</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>2290.339</v>
+      </c>
+      <c r="B163">
+        <v>7.596717831678689</v>
+      </c>
+      <c r="C163">
+        <v>25463780.49630206</v>
+      </c>
+      <c r="D163">
+        <v>80.30628000851721</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>27201.43869000001</v>
+      </c>
+      <c r="B164">
+        <v>4.202262008097023</v>
+      </c>
+      <c r="C164">
+        <v>14425389.42004321</v>
+      </c>
+      <c r="D164">
+        <v>40.4744764091447</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>5198.687100000001</v>
+      </c>
+      <c r="B165">
+        <v>10.06957567762583</v>
+      </c>
+      <c r="C165">
+        <v>44723733.24682237</v>
+      </c>
+      <c r="D165">
+        <v>98.27916419599205</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>31425.99679000002</v>
+      </c>
+      <c r="B166">
+        <v>7.787055871915072</v>
+      </c>
+      <c r="C166">
+        <v>4103404.770877678</v>
+      </c>
+      <c r="D166">
+        <v>12.05230168998241</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>974.129</v>
+      </c>
+      <c r="B167">
+        <v>12.86974995955825</v>
+      </c>
+      <c r="C167">
+        <v>60534850.40270491</v>
+      </c>
+      <c r="D167">
+        <v>11.08116044197232</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>21998.72339000001</v>
+      </c>
+      <c r="B168">
+        <v>12.16650266107172</v>
+      </c>
+      <c r="C168">
+        <v>83093964.28829758</v>
+      </c>
+      <c r="D168">
+        <v>15.95617544371635</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>10401.4024</v>
+      </c>
+      <c r="B169">
+        <v>11.22087066294625</v>
+      </c>
+      <c r="C169">
+        <v>90561956.14728378</v>
+      </c>
+      <c r="D169">
+        <v>1.655973703600466</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>23854.95039000001</v>
+      </c>
+      <c r="B170">
+        <v>3.536506173666567</v>
+      </c>
+      <c r="C170">
+        <v>63731573.57527176</v>
+      </c>
+      <c r="D170">
+        <v>57.30540123768151</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>8545.1754</v>
+      </c>
+      <c r="B171">
+        <v>12.17013203632087</v>
+      </c>
+      <c r="C171">
+        <v>60544112.45730007</v>
+      </c>
+      <c r="D171">
+        <v>69.52171339653432</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>19983.45599000001</v>
+      </c>
+      <c r="B172">
+        <v>3.348412567283958</v>
+      </c>
+      <c r="C172">
+        <v>71418505.3916066</v>
+      </c>
+      <c r="D172">
+        <v>85.42576974723488</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>12416.6698</v>
+      </c>
+      <c r="B173">
+        <v>2.281150266993791</v>
+      </c>
+      <c r="C173">
+        <v>61115240.08388399</v>
+      </c>
+      <c r="D173">
+        <v>92.69217448309064</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>3853.43799</v>
+      </c>
+      <c r="B174">
+        <v>7.324888365343213</v>
+      </c>
+      <c r="C174">
+        <v>68109354.53925282</v>
+      </c>
+      <c r="D174">
+        <v>28.56125622056425</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>28546.68780000001</v>
+      </c>
+      <c r="B175">
+        <v>7.357084995601326</v>
+      </c>
+      <c r="C175">
+        <v>28693588.34193554</v>
+      </c>
+      <c r="D175">
+        <v>87.99352368805557</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>3203.34929</v>
+      </c>
+      <c r="B176">
+        <v>11.95652485080063</v>
+      </c>
+      <c r="C176">
+        <v>37629115.90044852</v>
+      </c>
+      <c r="D176">
+        <v>90.98567964974791</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>29196.77650000001</v>
+      </c>
+      <c r="B177">
+        <v>3.788513376377523</v>
+      </c>
+      <c r="C177">
+        <v>61873353.6236966</v>
+      </c>
+      <c r="D177">
+        <v>37.66729552298784</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>31096.94429000002</v>
+      </c>
+      <c r="B178">
+        <v>1.785883193369955</v>
+      </c>
+      <c r="C178">
+        <v>62262834.23841</v>
+      </c>
+      <c r="D178">
+        <v>86.06932717375457</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>1303.1815</v>
+      </c>
+      <c r="B179">
+        <v>10.18282369710505</v>
+      </c>
+      <c r="C179">
+        <v>58800794.76478975</v>
+      </c>
+      <c r="D179">
+        <v>79.82844617217779</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>14872.84949</v>
+      </c>
+      <c r="B180">
+        <v>7.031648651696742</v>
+      </c>
+      <c r="C180">
+        <v>53396777.39736857</v>
+      </c>
+      <c r="D180">
+        <v>56.79001861717552</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>17527.2763</v>
+      </c>
+      <c r="B181">
+        <v>14.37072894861922</v>
+      </c>
+      <c r="C181">
+        <v>42729784.60188024</v>
+      </c>
+      <c r="D181">
+        <v>83.142723236233</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>19333.36729000001</v>
+      </c>
+      <c r="B182">
+        <v>11.18033488141373</v>
+      </c>
+      <c r="C182">
+        <v>20933835.8033332</v>
+      </c>
+      <c r="D182">
+        <v>76.77768059074879</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>13066.7585</v>
+      </c>
+      <c r="B183">
+        <v>10.99506855988875</v>
+      </c>
+      <c r="C183">
+        <v>50870991.46535154</v>
+      </c>
+      <c r="D183">
+        <v>50.05720290355384</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>1285.07299</v>
+      </c>
+      <c r="B184">
+        <v>1.808686615899205</v>
+      </c>
+      <c r="C184">
+        <v>24530186.63910916</v>
+      </c>
+      <c r="D184">
+        <v>11.68758566491306</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>31115.05280000002</v>
+      </c>
+      <c r="B185">
+        <v>5.215088353957981</v>
+      </c>
+      <c r="C185">
+        <v>60624967.15205489</v>
+      </c>
+      <c r="D185">
+        <v>83.64895321428776</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>5805.67209</v>
+      </c>
+      <c r="B186">
+        <v>11.49213371006772</v>
+      </c>
+      <c r="C186">
+        <v>82141802.36788467</v>
+      </c>
+      <c r="D186">
+        <v>2.266408246941864</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>26594.45370000001</v>
+      </c>
+      <c r="B187">
+        <v>11.05096257897094</v>
+      </c>
+      <c r="C187">
+        <v>74540509.11163446</v>
+      </c>
+      <c r="D187">
+        <v>25.95507800579071</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>16158.99999</v>
+      </c>
+      <c r="B188">
+        <v>5.033110118005425</v>
+      </c>
+      <c r="C188">
+        <v>56937218.94019982</v>
+      </c>
+      <c r="D188">
+        <v>32.13505153544247</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>16241.1258</v>
+      </c>
+      <c r="B189">
+        <v>8.782287450972944</v>
+      </c>
+      <c r="C189">
+        <v>1432418.145220727</v>
+      </c>
+      <c r="D189">
+        <v>84.01405301410705</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>16770.06659</v>
+      </c>
+      <c r="B190">
+        <v>3.786094197072089</v>
+      </c>
+      <c r="C190">
+        <v>9622826.935332268</v>
+      </c>
+      <c r="D190">
+        <v>76.47654584143311</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>15630.0592</v>
+      </c>
+      <c r="B191">
+        <v>3.095950489863753</v>
+      </c>
+      <c r="C191">
+        <v>87239742.10143554</v>
+      </c>
+      <c r="D191">
+        <v>18.83463666308671</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>674.00639</v>
+      </c>
+      <c r="B192">
+        <v>1.475463533308357</v>
+      </c>
+      <c r="C192">
+        <v>87072293.47503045</v>
+      </c>
+      <c r="D192">
+        <v>77.20696777105331</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>31726.11940000002</v>
+      </c>
+      <c r="B193">
+        <v>3.569561602082103</v>
+      </c>
+      <c r="C193">
+        <v>48288278.77910109</v>
+      </c>
+      <c r="D193">
+        <v>33.88037923723459</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>25548.19759000001</v>
+      </c>
+      <c r="B194">
+        <v>12.24147899495438</v>
+      </c>
+      <c r="C194">
+        <v>53233785.0530562</v>
+      </c>
+      <c r="D194">
+        <v>58.91247687395662</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>6851.928200000001</v>
+      </c>
+      <c r="B195">
+        <v>6.050492316950113</v>
+      </c>
+      <c r="C195">
+        <v>6092019.799188711</v>
+      </c>
+      <c r="D195">
+        <v>29.46327971294522</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>18683.27859000001</v>
+      </c>
+      <c r="B196">
+        <v>7.212326576001942</v>
+      </c>
+      <c r="C196">
+        <v>94562966.21863031</v>
+      </c>
+      <c r="D196">
+        <v>40.04705296829343</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>13716.8472</v>
+      </c>
+      <c r="B197">
+        <v>5.766882854513824</v>
+      </c>
+      <c r="C197">
+        <v>52661439.98366082</v>
+      </c>
+      <c r="D197">
+        <v>56.62351832725108</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>9652.171289999998</v>
+      </c>
+      <c r="B198">
+        <v>12.8557089837268</v>
+      </c>
+      <c r="C198">
+        <v>80522639.81642434</v>
+      </c>
+      <c r="D198">
+        <v>10.05104719661176</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>22747.95450000001</v>
+      </c>
+      <c r="B199">
+        <v>2.736846428830177</v>
+      </c>
+      <c r="C199">
+        <v>41067743.93995758</v>
+      </c>
+      <c r="D199">
+        <v>89.08303375355899</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>25203.15019000001</v>
+      </c>
+      <c r="B200">
+        <v>9.354751441627741</v>
+      </c>
+      <c r="C200">
+        <v>70286423.2846396</v>
+      </c>
+      <c r="D200">
+        <v>41.10204628668725</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>7196.975600000002</v>
+      </c>
+      <c r="B201">
+        <v>10.35122571513057</v>
+      </c>
+      <c r="C201">
+        <v>16517744.54898899</v>
+      </c>
+      <c r="D201">
+        <v>43.6780072748661</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>980.03169</v>
+      </c>
+      <c r="B202">
+        <v>7.339538204018027</v>
+      </c>
+      <c r="C202">
+        <v>56236173.84118028</v>
+      </c>
+      <c r="D202">
+        <v>2.98084462992847</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>31420.09410000002</v>
+      </c>
+      <c r="B203">
+        <v>13.34439842263237</v>
+      </c>
+      <c r="C203">
+        <v>36548069.68338555</v>
+      </c>
+      <c r="D203">
+        <v>35.36451864056289</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>9347.129989999999</v>
+      </c>
+      <c r="B204">
+        <v>2.26352080469951</v>
+      </c>
+      <c r="C204">
+        <v>94236733.66000876</v>
+      </c>
+      <c r="D204">
+        <v>62.85859174095094</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>23052.99580000001</v>
+      </c>
+      <c r="B205">
+        <v>14.94449651055038</v>
+      </c>
+      <c r="C205">
+        <v>82145378.28894332</v>
+      </c>
+      <c r="D205">
+        <v>8.023062394931912</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>9018.07749</v>
+      </c>
+      <c r="B206">
+        <v>3.633173552341759</v>
+      </c>
+      <c r="C206">
+        <v>33344307.76651716</v>
+      </c>
+      <c r="D206">
+        <v>77.87978071719408</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>23382.04830000001</v>
+      </c>
+      <c r="B207">
+        <v>11.71155219804496</v>
+      </c>
+      <c r="C207">
+        <v>70500488.97756031</v>
+      </c>
+      <c r="D207">
+        <v>39.36707468237728</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>27813.48929000002</v>
+      </c>
+      <c r="B208">
+        <v>2.002181756775826</v>
+      </c>
+      <c r="C208">
+        <v>10132326.30959712</v>
+      </c>
+      <c r="D208">
+        <v>17.47459499165416</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>4586.636500000001</v>
+      </c>
+      <c r="B209">
+        <v>1.262719751801342</v>
+      </c>
+      <c r="C209">
+        <v>32293530.09156417</v>
+      </c>
+      <c r="D209">
+        <v>38.68056235369295</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>3508.39059</v>
+      </c>
+      <c r="B210">
+        <v>4.862942417617887</v>
+      </c>
+      <c r="C210">
+        <v>32525162.38028184</v>
+      </c>
+      <c r="D210">
+        <v>87.47058415319771</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>28891.73520000001</v>
+      </c>
+      <c r="B211">
+        <v>6.001336153130978</v>
+      </c>
+      <c r="C211">
+        <v>337179.2930341326</v>
+      </c>
+      <c r="D211">
+        <v>60.16919219400734</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>17420.15529</v>
+      </c>
+      <c r="B212">
+        <v>4.50914862472564</v>
+      </c>
+      <c r="C212">
+        <v>29433370.35080651</v>
+      </c>
+      <c r="D212">
+        <v>57.99599101301283</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>14979.9705</v>
+      </c>
+      <c r="B213">
+        <v>10.81174066476524</v>
+      </c>
+      <c r="C213">
+        <v>31249403.67634175</v>
+      </c>
+      <c r="D213">
+        <v>0.4704247694462538</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>7066.827389999999</v>
+      </c>
+      <c r="B214">
+        <v>7.715312425047159</v>
+      </c>
+      <c r="C214">
+        <v>79214261.47212042</v>
+      </c>
+      <c r="D214">
+        <v>94.28029586561024</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>25333.29840000001</v>
+      </c>
+      <c r="B215">
+        <v>14.5615508123301</v>
+      </c>
+      <c r="C215">
+        <v>89384928.53065021</v>
+      </c>
+      <c r="D215">
+        <v>31.09714940655977</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>11260.34199</v>
+      </c>
+      <c r="B216">
+        <v>3.815358895342797</v>
+      </c>
+      <c r="C216">
+        <v>16899717.05648117</v>
+      </c>
+      <c r="D216">
+        <v>34.94456992484629</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>21139.7838</v>
+      </c>
+      <c r="B217">
+        <v>3.429225850384682</v>
+      </c>
+      <c r="C217">
+        <v>18452617.88384756</v>
+      </c>
+      <c r="D217">
+        <v>88.93068302422762</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>15201.90199</v>
+      </c>
+      <c r="B218">
+        <v>8.05402950476855</v>
+      </c>
+      <c r="C218">
+        <v>11868514.29997012</v>
+      </c>
+      <c r="D218">
+        <v>1.840327074751258</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>17198.2238</v>
+      </c>
+      <c r="B219">
+        <v>5.199877679813653</v>
+      </c>
+      <c r="C219">
+        <v>14967664.6716916</v>
+      </c>
+      <c r="D219">
+        <v>57.54195018671453</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>32037.06339000002</v>
+      </c>
+      <c r="B220">
+        <v>3.681631422135979</v>
+      </c>
+      <c r="C220">
+        <v>8790310.840359889</v>
+      </c>
+      <c r="D220">
+        <v>32.88944272790104</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>363.0624</v>
+      </c>
+      <c r="B221">
+        <v>11.01766986912116</v>
+      </c>
+      <c r="C221">
+        <v>41538827.74837083</v>
+      </c>
+      <c r="D221">
+        <v>95.92624325305223</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>6455.760789999999</v>
+      </c>
+      <c r="B222">
+        <v>9.570827633142471</v>
+      </c>
+      <c r="C222">
+        <v>37516412.83283476</v>
+      </c>
+      <c r="D222">
+        <v>51.86151582747698</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>25944.36500000001</v>
+      </c>
+      <c r="B223">
+        <v>10.0541402422823</v>
+      </c>
+      <c r="C223">
+        <v>18456829.71821167</v>
+      </c>
+      <c r="D223">
+        <v>18.03435992915183</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>22304.74869000001</v>
+      </c>
+      <c r="B224">
+        <v>3.787105467636138</v>
+      </c>
+      <c r="C224">
+        <v>50917239.02002443</v>
+      </c>
+      <c r="D224">
+        <v>19.63467951864004</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>10095.3771</v>
+      </c>
+      <c r="B225">
+        <v>6.18991062650457</v>
+      </c>
+      <c r="C225">
+        <v>48715241.3788694</v>
+      </c>
+      <c r="D225">
+        <v>36.76849780604243</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>10954.31669</v>
+      </c>
+      <c r="B226">
+        <v>8.434457149356604</v>
+      </c>
+      <c r="C226">
+        <v>54691699.52279189</v>
+      </c>
+      <c r="D226">
+        <v>11.12092598341405</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>21445.80910000001</v>
+      </c>
+      <c r="B227">
+        <v>14.18629384227097</v>
+      </c>
+      <c r="C227">
+        <v>13339900.35387222</v>
+      </c>
+      <c r="D227">
+        <v>58.8449781993404</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>19678.41469000001</v>
+      </c>
+      <c r="B228">
+        <v>1.841598858591169</v>
+      </c>
+      <c r="C228">
+        <v>80890335.29612468</v>
+      </c>
+      <c r="D228">
+        <v>20.30432256869972</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>12721.7111</v>
+      </c>
+      <c r="B229">
+        <v>11.79888077871874</v>
+      </c>
+      <c r="C229">
+        <v>53947558.82467376</v>
+      </c>
+      <c r="D229">
+        <v>69.29870541207492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
